--- a/Inputs/Active Partnership record - 25 01 2021 (ODA labelled).xlsx
+++ b/Inputs/Active Partnership record - 25 01 2021 (ODA labelled).xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clegge\OneDrive - Wellcome Cloud\Project MODARI\Phase 2 - Implementation\2) Awards\Wellcome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dfid-my.sharepoint.com/personal/e-clegg_dfid_gov_uk/Documents/Github Projects/ODA_research_and_innovation/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{A3BF9C23-B6EB-4FDD-9111-32AC3D4B3EED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{9563E8B6-3261-46C1-BBB3-6AE9955D0E36}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{A3BF9C23-B6EB-4FDD-9111-32AC3D4B3EED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB63A014-481D-4B6C-AD30-0FE7A20688E8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$1:$Y$146</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="608">
   <si>
     <t>Match</t>
   </si>
@@ -1815,6 +1816,48 @@
   </si>
   <si>
     <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>214662/A/18/Z</t>
+  </si>
+  <si>
+    <t>221350/Z/20/Z</t>
+  </si>
+  <si>
+    <t>107753/A/15/Z</t>
+  </si>
+  <si>
+    <t>222105/Z/20/Z</t>
+  </si>
+  <si>
+    <t>222357/Z/21/Z</t>
+  </si>
+  <si>
+    <t>222048/Z/20/Z</t>
+  </si>
+  <si>
+    <t>215689/Z/19/Z</t>
+  </si>
+  <si>
+    <t>223271/A/21/Z</t>
+  </si>
+  <si>
+    <t>223271/Z/21/Z</t>
+  </si>
+  <si>
+    <t>221997/Z/20/Z</t>
+  </si>
+  <si>
+    <t>Centre Suisse De Recherches Scientifiques - Cote D'ivoire</t>
+  </si>
+  <si>
+    <t>Epicentre</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
 </sst>
 </file>
@@ -1825,7 +1868,7 @@
     <numFmt numFmtId="164" formatCode="[$-10409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$-10409]dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1875,8 +1918,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1886,6 +1936,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1902,7 +1958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
@@ -1929,7 +1985,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
@@ -1937,6 +1992,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2020,774 +2080,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Details"/>
-      <sheetName val="Partnership Tracker"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Reference</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>200171/Z/15/Z</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>215091/Z/18/Z</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>215674/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>215673/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>215704/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>215676/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>215689/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>215675/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>215663/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>215692/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>216273/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>215858/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>221003/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>220977/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>220981/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>220985/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>221012/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>220991/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>221013/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>221559/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>222037/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>222105/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>102591/Z/13/A</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>202917/A/16/Z</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>218348/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>218338/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>218334/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>218333/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>216448/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>216458/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>216451/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>216367/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>216447/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>215492/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>215633/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>217123/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>215492/A/19/Z</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>219651/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>218743/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>218773/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>218776/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>218987/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>219532/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>219468/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46" t="str">
-            <v>217135/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47" t="str">
-            <v>219688/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48" t="str">
-            <v>218771/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49" t="str">
-            <v>220225/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50" t="str">
-            <v>219682/A/19/Z</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51" t="str">
-            <v>221465/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52" t="str">
-            <v>221483/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53" t="str">
-            <v>220717/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54" t="str">
-            <v>220684/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55" t="str">
-            <v>220818/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56" t="str">
-            <v>221410/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57" t="str">
-            <v>220870/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58" t="str">
-            <v>220866/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59" t="str">
-            <v>221940/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60" t="str">
-            <v>222019/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61" t="str">
-            <v>222007/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62" t="str">
-            <v>222011/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63" t="str">
-            <v>221991/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64" t="str">
-            <v>221997/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65" t="str">
-            <v>222164/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66" t="str">
-            <v>102232/Z/13/Z</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67" t="str">
-            <v>109349/Z/15/Z</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68" t="str">
-            <v>205361/Z/16/Z</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69" t="str">
-            <v>109344/Z/15/Z</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70" t="str">
-            <v>209909/Z/17/Z</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71" t="str">
-            <v>206005/Z/16/Z</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72" t="str">
-            <v>215119/Z/18/Z</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73" t="str">
-            <v>219642/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74" t="str">
-            <v>219641/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75" t="str">
-            <v>211006/Z/18/Z</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76" t="str">
-            <v>220415/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77" t="str">
-            <v>222265/Z/21/Z</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78" t="str">
-            <v>101318/Z/13/E</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79" t="str">
-            <v>101318/Z/13/F</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80" t="str">
-            <v>101318/Z/13/G</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81" t="str">
-            <v>101318/Z/13/H</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82" t="str">
-            <v>101318/Z/13/Z</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86" t="str">
-            <v>Reference</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87" t="str">
-            <v>208410/Z/17/Z</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88" t="str">
-            <v>208411/Z/17/Z</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89" t="str">
-            <v>208413/Z/17/Z</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90" t="str">
-            <v>099951/Z/12/Z</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91" t="str">
-            <v>105431/Z/14/Z</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92" t="str">
-            <v>105439/Z/14/Z</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93" t="str">
-            <v>109346/Z/15/Z</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94" t="str">
-            <v>109350/Z/15/Z</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95" t="str">
-            <v>109351/Z/15/Z</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96" t="str">
-            <v>109352/Z/15/Z</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97" t="str">
-            <v>206004/Z/16/Z</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98" t="str">
-            <v>206007/Z/16/Z</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99" t="str">
-            <v>209918/Z/17/Z</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100" t="str">
-            <v>215125/Z/18/Z</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101" t="str">
-            <v>101318/Z/13/B</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102" t="str">
-            <v>101318/Z/13/C</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103" t="str">
-            <v>101318/Z/13/D</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104" t="str">
-            <v>106807/D/15/Z</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105" t="str">
-            <v>106807/E/15/Z</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106" t="str">
-            <v>106807/F/15/Z</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107" t="str">
-            <v>106807/G/15/Z</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108" t="str">
-            <v>107741/B/15/Z</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109" t="str">
-            <v>107741/C/15/Z</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110" t="str">
-            <v>107742/B/15/Z</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111" t="str">
-            <v>107742/C/15/Z</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112" t="str">
-            <v>107743/B/15/Z</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113" t="str">
-            <v>107743/C/15/Z</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114" t="str">
-            <v>107751/C/15/Z</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115" t="str">
-            <v>107752/B/15/Z</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116" t="str">
-            <v>107753/B/15/Z</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117" t="str">
-            <v>107754/B/15/Z</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118" t="str">
-            <v>107755/B/15/Z</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119" t="str">
-            <v>107755/C/15/Z</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120" t="str">
-            <v>107755/D/15/Z</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121" t="str">
-            <v>107768/B/15/Z</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122" t="str">
-            <v>200918/Z/16/Z</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123" t="str">
-            <v>205377/A/16/Z</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124" t="str">
-            <v>212156/Z/18/Z</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125" t="str">
-            <v>212875/Z/18/Z</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126" t="str">
-            <v>214626/Z/18/Z</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127" t="str">
-            <v>214662/Z/18/Z</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128" t="str">
-            <v>214711/Z/18/Z</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129" t="str">
-            <v>215373/A/19/Z</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130" t="str">
-            <v>215495/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131" t="str">
-            <v>215685/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132" t="str">
-            <v>215691/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133" t="str">
-            <v>215704/A/19/Z</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134" t="str">
-            <v>215797/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135" t="str">
-            <v>215373/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136" t="str">
-            <v>215474/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137" t="str">
-            <v>219169/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138" t="str">
-            <v>219634/A/19/Z</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139" t="str">
-            <v>219634/Z/19/Z</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140" t="str">
-            <v>220125/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141" t="str">
-            <v>220214/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142" t="str">
-            <v>220217/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143" t="str">
-            <v>220506/Z/20/A</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144" t="str">
-            <v>220506/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145" t="str">
-            <v>220757/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146" t="str">
-            <v>200205/Z/15/Z</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147" t="str">
-            <v>200344/Z/15/Z</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148" t="str">
-            <v>200346/Z/15/Z</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149" t="str">
-            <v>220764/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150" t="str">
-            <v>221303/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151" t="str">
-            <v>221386/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152" t="str">
-            <v>221566/Z/20/Z</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153" t="str">
-            <v>221576/Z/20/Z</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3111,45 +2403,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Y147"/>
+  <dimension ref="A1:Y161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="AA152" sqref="AA152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2"/>
-    <col min="2" max="2" width="18.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="2"/>
+    <col min="2" max="2" width="18.54296875" style="2" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="32.6640625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="32.6640625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="27.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.36328125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="32.6328125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="32.6328125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="25.36328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="26.36328125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.36328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="76.36328125" style="2" customWidth="1"/>
     <col min="15" max="15" width="25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="45.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="45.6328125" style="2" customWidth="1"/>
     <col min="17" max="17" width="23" style="2" customWidth="1"/>
-    <col min="18" max="18" width="26.5546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="26.6640625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="18.6640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="17.6640625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="17.5546875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="26.54296875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.36328125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="26.6328125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="18.6328125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="17.6328125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="17.54296875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="12.6328125" style="2" customWidth="1"/>
     <col min="25" max="25" width="28" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="8.6640625" style="2"/>
+    <col min="26" max="16384" width="8.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3171,10 +2462,10 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -3226,9 +2517,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <f>MATCH(B2,[1]Details!$B:$B,0)</f>
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3300,12 +2590,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <f>MATCH(B3,[1]Details!$B:$B,0)</f>
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3374,12 +2663,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <f>MATCH(B4,[1]Details!$B:$B,0)</f>
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3448,12 +2736,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <f>MATCH(B5,[1]Details!$B:$B,0)</f>
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3522,12 +2809,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <f>MATCH(B6,[1]Details!$B:$B,0)</f>
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -3596,12 +2882,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <f>MATCH(B7,[1]Details!$B:$B,0)</f>
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3670,12 +2955,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <f>MATCH(B8,[1]Details!$B:$B,0)</f>
         <v>9</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3744,12 +3028,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <f>MATCH(B9,[1]Details!$B:$B,0)</f>
         <v>10</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3818,12 +3101,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <f>MATCH(B10,[1]Details!$B:$B,0)</f>
         <v>11</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3892,12 +3174,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <f>MATCH(B11,[1]Details!$B:$B,0)</f>
         <v>12</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3966,12 +3247,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <f>MATCH(B12,[1]Details!$B:$B,0)</f>
         <v>13</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -4040,12 +3320,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <f>MATCH(B13,[1]Details!$B:$B,0)</f>
         <v>14</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>93</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -4114,12 +3393,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <f>MATCH(B14,[1]Details!$B:$B,0)</f>
         <v>15</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -4188,12 +3466,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <f>MATCH(B15,[1]Details!$B:$B,0)</f>
         <v>16</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -4262,12 +3539,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <f>MATCH(B16,[1]Details!$B:$B,0)</f>
         <v>17</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -4336,12 +3612,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <f>MATCH(B17,[1]Details!$B:$B,0)</f>
         <v>18</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>112</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -4410,12 +3685,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <f>MATCH(B18,[1]Details!$B:$B,0)</f>
         <v>19</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>117</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -4484,12 +3758,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <f>MATCH(B19,[1]Details!$B:$B,0)</f>
         <v>20</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -4558,12 +3831,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <f>MATCH(B20,[1]Details!$B:$B,0)</f>
         <v>21</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -4632,12 +3904,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <f>MATCH(B21,[1]Details!$B:$B,0)</f>
         <v>22</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>129</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -4704,12 +3975,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <f>MATCH(B22,[1]Details!$B:$B,0)</f>
         <v>24</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>134</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -4780,12 +4050,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <f>MATCH(B23,[1]Details!$B:$B,0)</f>
         <v>25</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -4856,12 +4125,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <f>MATCH(B24,[1]Details!$B:$B,0)</f>
         <v>26</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>152</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -4930,12 +4198,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <f>MATCH(B25,[1]Details!$B:$B,0)</f>
         <v>27</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>159</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -5004,12 +4271,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <f>MATCH(B26,[1]Details!$B:$B,0)</f>
         <v>28</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>162</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -5078,12 +4344,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <f>MATCH(B27,[1]Details!$B:$B,0)</f>
         <v>29</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>166</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -5152,12 +4417,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <f>MATCH(B28,[1]Details!$B:$B,0)</f>
         <v>30</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>170</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -5226,12 +4490,11 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <f>MATCH(B29,[1]Details!$B:$B,0)</f>
-        <v>31</v>
-      </c>
-      <c r="B29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>177</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -5300,12 +4563,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <f>MATCH(B30,[1]Details!$B:$B,0)</f>
         <v>32</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>182</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -5374,12 +4636,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <f>MATCH(B31,[1]Details!$B:$B,0)</f>
-        <v>33</v>
-      </c>
-      <c r="B31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>185</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -5450,12 +4711,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <f>MATCH(B32,[1]Details!$B:$B,0)</f>
         <v>34</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>189</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -5524,12 +4784,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <f>MATCH(B33,[1]Details!$B:$B,0)</f>
         <v>35</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>194</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -5598,12 +4857,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <f>MATCH(B34,[1]Details!$B:$B,0)</f>
         <v>36</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>197</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -5672,12 +4930,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <f>MATCH(B35,[1]Details!$B:$B,0)</f>
         <v>37</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>200</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -5746,12 +5003,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <f>MATCH(B36,[1]Details!$B:$B,0)</f>
-        <v>38</v>
-      </c>
-      <c r="B36" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>204</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -5822,12 +5078,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <f>MATCH(B37,[1]Details!$B:$B,0)</f>
         <v>39</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>208</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -5896,12 +5151,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <f>MATCH(B38,[1]Details!$B:$B,0)</f>
         <v>40</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>211</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -5970,12 +5224,11 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <f>MATCH(B39,[1]Details!$B:$B,0)</f>
         <v>41</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>216</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -6044,12 +5297,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <f>MATCH(B40,[1]Details!$B:$B,0)</f>
         <v>42</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>223</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -6118,12 +5370,11 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <f>MATCH(B41,[1]Details!$B:$B,0)</f>
         <v>43</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>226</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -6192,12 +5443,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <f>MATCH(B42,[1]Details!$B:$B,0)</f>
         <v>44</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>231</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -6266,12 +5516,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <f>MATCH(B43,[1]Details!$B:$B,0)</f>
         <v>45</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>237</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -6340,12 +5589,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <f>MATCH(B44,[1]Details!$B:$B,0)</f>
         <v>46</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>240</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -6414,12 +5662,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <f>MATCH(B45,[1]Details!$B:$B,0)</f>
         <v>47</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>244</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -6488,12 +5735,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <f>MATCH(B46,[1]Details!$B:$B,0)</f>
         <v>48</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>247</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -6564,12 +5810,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <f>MATCH(B47,[1]Details!$B:$B,0)</f>
         <v>49</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>253</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -6638,12 +5883,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <f>MATCH(B48,[1]Details!$B:$B,0)</f>
         <v>50</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>257</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -6714,12 +5958,11 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <f>MATCH(B49,[1]Details!$B:$B,0)</f>
         <v>51</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>263</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -6788,12 +6031,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <f>MATCH(B50,[1]Details!$B:$B,0)</f>
         <v>52</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>266</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -6862,12 +6104,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
-        <f>MATCH(B51,[1]Details!$B:$B,0)</f>
         <v>53</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>270</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -6936,12 +6177,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
-        <f>MATCH(B52,[1]Details!$B:$B,0)</f>
         <v>54</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>274</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -7010,12 +6250,11 @@
         <v>278</v>
       </c>
     </row>
-    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
-        <f>MATCH(B53,[1]Details!$B:$B,0)</f>
         <v>55</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>279</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -7084,12 +6323,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
-        <f>MATCH(B54,[1]Details!$B:$B,0)</f>
         <v>56</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>284</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -7158,12 +6396,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
-        <f>MATCH(B55,[1]Details!$B:$B,0)</f>
         <v>57</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>289</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -7232,12 +6469,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
-        <f>MATCH(B56,[1]Details!$B:$B,0)</f>
         <v>58</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="12" t="s">
         <v>292</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -7306,12 +6542,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
-        <f>MATCH(B57,[1]Details!$B:$B,0)</f>
         <v>59</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>296</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -7380,12 +6615,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
-        <f>MATCH(B58,[1]Details!$B:$B,0)</f>
         <v>60</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
         <v>299</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -7452,12 +6686,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
-        <f>MATCH(B59,[1]Details!$B:$B,0)</f>
         <v>61</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>303</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -7526,12 +6759,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
-        <f>MATCH(B60,[1]Details!$B:$B,0)</f>
         <v>62</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="12" t="s">
         <v>307</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -7598,12 +6830,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
-        <f>MATCH(B61,[1]Details!$B:$B,0)</f>
         <v>63</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="12" t="s">
         <v>310</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -7672,9 +6903,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
-        <f>MATCH(B62,[1]Details!$B:$B,0)</f>
         <v>65</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -7748,9 +6978,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
-        <f>MATCH(B63,[1]Details!$B:$B,0)</f>
         <v>66</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -7824,9 +7053,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
-        <f>MATCH(B64,[1]Details!$B:$B,0)</f>
         <v>67</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -7900,9 +7128,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
-        <f>MATCH(B65,[1]Details!$B:$B,0)</f>
         <v>68</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -7976,9 +7203,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
-        <f>MATCH(B66,[1]Details!$B:$B,0)</f>
         <v>69</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -8052,9 +7278,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
-        <f>MATCH(B67,[1]Details!$B:$B,0)</f>
         <v>70</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -8128,9 +7353,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
-        <f>MATCH(B68,[1]Details!$B:$B,0)</f>
         <v>71</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -8204,9 +7428,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
-        <f>MATCH(B69,[1]Details!$B:$B,0)</f>
         <v>72</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -8280,9 +7503,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
-        <f>MATCH(B70,[1]Details!$B:$B,0)</f>
         <v>73</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -8356,9 +7578,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
-        <f>MATCH(B71,[1]Details!$B:$B,0)</f>
         <v>74</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -8432,9 +7653,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
-        <f>MATCH(B72,[1]Details!$B:$B,0)</f>
         <v>75</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -8508,9 +7728,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
-        <f>MATCH(B73,[1]Details!$B:$B,0)</f>
         <v>76</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -8584,9 +7803,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
-        <f>MATCH(B74,[1]Details!$B:$B,0)</f>
         <v>77</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -8660,12 +7878,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
-        <f>MATCH(B75,[1]Details!$B:$B,0)</f>
         <v>78</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="12" t="s">
         <v>362</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -8736,12 +7953,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
-        <f>MATCH(B76,[1]Details!$B:$B,0)</f>
         <v>79</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="12" t="s">
         <v>370</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -8812,12 +8028,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
-        <f>MATCH(B77,[1]Details!$B:$B,0)</f>
         <v>80</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="12" t="s">
         <v>372</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -8888,12 +8103,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
-        <f>MATCH(B78,[1]Details!$B:$B,0)</f>
         <v>81</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="12" t="s">
         <v>374</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -8964,12 +8178,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
-        <f>MATCH(B79,[1]Details!$B:$B,0)</f>
         <v>82</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="12" t="s">
         <v>376</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -9038,9 +8251,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
-        <f>MATCH(B80,[1]Details!$B:$B,0)</f>
         <v>87</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -9114,9 +8326,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
-        <f>MATCH(B81,[1]Details!$B:$B,0)</f>
         <v>88</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -9190,9 +8401,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
-        <f>MATCH(B82,[1]Details!$B:$B,0)</f>
         <v>89</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -9266,9 +8476,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
-        <f>MATCH(B83,[1]Details!$B:$B,0)</f>
         <v>90</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -9342,9 +8551,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
-        <f>MATCH(B84,[1]Details!$B:$B,0)</f>
         <v>91</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -9418,9 +8626,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
-        <f>MATCH(B85,[1]Details!$B:$B,0)</f>
         <v>92</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -9494,9 +8701,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
-        <f>MATCH(B86,[1]Details!$B:$B,0)</f>
         <v>93</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -9570,9 +8776,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
-        <f>MATCH(B87,[1]Details!$B:$B,0)</f>
         <v>94</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -9646,9 +8851,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
-        <f>MATCH(B88,[1]Details!$B:$B,0)</f>
         <v>95</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -9722,9 +8926,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
-        <f>MATCH(B89,[1]Details!$B:$B,0)</f>
         <v>96</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -9798,9 +9001,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
-        <f>MATCH(B90,[1]Details!$B:$B,0)</f>
         <v>97</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -9874,9 +9076,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
-        <f>MATCH(B91,[1]Details!$B:$B,0)</f>
         <v>98</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -9950,9 +9151,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
-        <f>MATCH(B92,[1]Details!$B:$B,0)</f>
         <v>99</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -10026,9 +9226,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
-        <f>MATCH(B93,[1]Details!$B:$B,0)</f>
         <v>100</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -10102,12 +9301,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
-        <f>MATCH(B94,[1]Details!$B:$B,0)</f>
         <v>101</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="12" t="s">
         <v>427</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -10178,12 +9376,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
-        <f>MATCH(B95,[1]Details!$B:$B,0)</f>
         <v>102</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="12" t="s">
         <v>429</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -10254,12 +9451,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
-        <f>MATCH(B96,[1]Details!$B:$B,0)</f>
         <v>103</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="12" t="s">
         <v>430</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -10330,12 +9526,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
-        <f>MATCH(B97,[1]Details!$B:$B,0)</f>
         <v>104</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="12" t="s">
         <v>431</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -10406,12 +9601,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
-        <f>MATCH(B98,[1]Details!$B:$B,0)</f>
         <v>105</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="12" t="s">
         <v>437</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -10482,12 +9676,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
-        <f>MATCH(B99,[1]Details!$B:$B,0)</f>
         <v>106</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="12" t="s">
         <v>438</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -10558,12 +9751,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
-        <f>MATCH(B100,[1]Details!$B:$B,0)</f>
         <v>107</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="12" t="s">
         <v>439</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -10634,12 +9826,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
-        <f>MATCH(B101,[1]Details!$B:$B,0)</f>
         <v>108</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="12" t="s">
         <v>440</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -10711,12 +9902,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
-        <f>MATCH(B102,[1]Details!$B:$B,0)</f>
         <v>109</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="12" t="s">
         <v>444</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -10788,12 +9978,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
-        <f>MATCH(B103,[1]Details!$B:$B,0)</f>
         <v>110</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="12" t="s">
         <v>446</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -10865,12 +10054,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
-        <f>MATCH(B104,[1]Details!$B:$B,0)</f>
         <v>111</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="12" t="s">
         <v>450</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -10942,12 +10130,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
-        <f>MATCH(B105,[1]Details!$B:$B,0)</f>
         <v>112</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="12" t="s">
         <v>452</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -11019,12 +10206,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
-        <f>MATCH(B106,[1]Details!$B:$B,0)</f>
         <v>113</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="12" t="s">
         <v>454</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -11096,12 +10282,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
-        <f>MATCH(B107,[1]Details!$B:$B,0)</f>
         <v>114</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="12" t="s">
         <v>455</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -11173,12 +10358,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
-        <f>MATCH(B108,[1]Details!$B:$B,0)</f>
         <v>115</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="12" t="s">
         <v>459</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -11250,12 +10434,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
-        <f>MATCH(B109,[1]Details!$B:$B,0)</f>
         <v>116</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="12" t="s">
         <v>462</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -11327,12 +10510,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
-        <f>MATCH(B110,[1]Details!$B:$B,0)</f>
         <v>117</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="12" t="s">
         <v>466</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -11404,12 +10586,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
-        <f>MATCH(B111,[1]Details!$B:$B,0)</f>
         <v>118</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -11481,12 +10662,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
-        <f>MATCH(B112,[1]Details!$B:$B,0)</f>
         <v>119</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="12" t="s">
         <v>472</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -11558,12 +10738,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
-        <f>MATCH(B113,[1]Details!$B:$B,0)</f>
         <v>120</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="12" t="s">
         <v>474</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -11635,12 +10814,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
-        <f>MATCH(B114,[1]Details!$B:$B,0)</f>
         <v>121</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="12" t="s">
         <v>476</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -11712,12 +10890,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
-        <f>MATCH(B115,[1]Details!$B:$B,0)</f>
         <v>122</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="12" t="s">
         <v>479</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -11787,12 +10964,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
-        <f>MATCH(B116,[1]Details!$B:$B,0)</f>
         <v>123</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="12" t="s">
         <v>482</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -11863,12 +11039,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
-        <f>MATCH(B117,[1]Details!$B:$B,0)</f>
         <v>124</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="12" t="s">
         <v>486</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -11937,12 +11112,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
-        <f>MATCH(B118,[1]Details!$B:$B,0)</f>
         <v>125</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="12" t="s">
         <v>489</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -12011,12 +11185,11 @@
         <v>494</v>
       </c>
     </row>
-    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
-        <f>MATCH(B119,[1]Details!$B:$B,0)</f>
         <v>126</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="B119" s="12" t="s">
         <v>495</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -12085,9 +11258,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
-        <f>MATCH(B120,[1]Details!$B:$B,0)</f>
         <v>127</v>
       </c>
       <c r="B120" s="13" t="s">
@@ -12159,12 +11331,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
-        <f>MATCH(B121,[1]Details!$B:$B,0)</f>
         <v>128</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="12" t="s">
         <v>500</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -12233,12 +11404,11 @@
         <v>494</v>
       </c>
     </row>
-    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
-        <f>MATCH(B122,[1]Details!$B:$B,0)</f>
         <v>129</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="12" t="s">
         <v>503</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -12309,12 +11479,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
-        <f>MATCH(B123,[1]Details!$B:$B,0)</f>
         <v>130</v>
       </c>
-      <c r="B123" s="13" t="s">
+      <c r="B123" s="12" t="s">
         <v>507</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -12383,12 +11552,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
-        <f>MATCH(B124,[1]Details!$B:$B,0)</f>
         <v>131</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="12" t="s">
         <v>511</v>
       </c>
       <c r="C124" s="4" t="s">
@@ -12457,12 +11625,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
-        <f>MATCH(B125,[1]Details!$B:$B,0)</f>
         <v>132</v>
       </c>
-      <c r="B125" s="13" t="s">
+      <c r="B125" s="12" t="s">
         <v>515</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -12531,12 +11698,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
-        <f>MATCH(B126,[1]Details!$B:$B,0)</f>
         <v>133</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="B126" s="12" t="s">
         <v>518</v>
       </c>
       <c r="C126" s="4" t="s">
@@ -12607,12 +11773,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
-        <f>MATCH(B127,[1]Details!$B:$B,0)</f>
         <v>134</v>
       </c>
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="12" t="s">
         <v>523</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -12681,9 +11846,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
-        <f>MATCH(B128,[1]Details!$B:$B,0)</f>
         <v>135</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -12755,9 +11919,8 @@
         <v>530</v>
       </c>
     </row>
-    <row r="129" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
-        <f>MATCH(B129,[1]Details!$B:$B,0)</f>
         <v>136</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -12829,12 +11992,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="130" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
-        <f>MATCH(B130,[1]Details!$B:$B,0)</f>
         <v>137</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="12" t="s">
         <v>535</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -12903,12 +12065,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
-        <f>MATCH(B131,[1]Details!$B:$B,0)</f>
         <v>138</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="12" t="s">
         <v>539</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -12979,12 +12140,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
-        <f>MATCH(B132,[1]Details!$B:$B,0)</f>
         <v>139</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="12" t="s">
         <v>543</v>
       </c>
       <c r="C132" s="4" t="s">
@@ -13053,12 +12213,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
-        <f>MATCH(B133,[1]Details!$B:$B,0)</f>
         <v>140</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="12" t="s">
         <v>544</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -13127,12 +12286,11 @@
         <v>548</v>
       </c>
     </row>
-    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
-        <f>MATCH(B134,[1]Details!$B:$B,0)</f>
         <v>141</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="12" t="s">
         <v>549</v>
       </c>
       <c r="C134" s="4" t="s">
@@ -13201,12 +12359,11 @@
         <v>553</v>
       </c>
     </row>
-    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
-        <f>MATCH(B135,[1]Details!$B:$B,0)</f>
         <v>142</v>
       </c>
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="12" t="s">
         <v>554</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -13275,12 +12432,11 @@
         <v>553</v>
       </c>
     </row>
-    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
-        <f>MATCH(B136,[1]Details!$B:$B,0)</f>
         <v>143</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="12" t="s">
         <v>557</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -13351,12 +12507,11 @@
         <v>562</v>
       </c>
     </row>
-    <row r="137" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
-        <f>MATCH(B137,[1]Details!$B:$B,0)</f>
         <v>144</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="12" t="s">
         <v>563</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -13425,12 +12580,11 @@
         <v>562</v>
       </c>
     </row>
-    <row r="138" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
-        <f>MATCH(B138,[1]Details!$B:$B,0)</f>
         <v>145</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="12" t="s">
         <v>564</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -13499,9 +12653,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
-        <f>MATCH(B139,[1]Details!$B:$B,0)</f>
         <v>146</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -13573,9 +12726,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
-        <f>MATCH(B140,[1]Details!$B:$B,0)</f>
         <v>147</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -13647,9 +12799,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
-        <f>MATCH(B141,[1]Details!$B:$B,0)</f>
         <v>148</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -13721,12 +12872,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
-        <f>MATCH(B142,[1]Details!$B:$B,0)</f>
         <v>149</v>
       </c>
-      <c r="B142" s="13" t="s">
+      <c r="B142" s="12" t="s">
         <v>577</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -13795,12 +12945,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
-        <f>MATCH(B143,[1]Details!$B:$B,0)</f>
         <v>150</v>
       </c>
-      <c r="B143" s="13" t="s">
+      <c r="B143" s="12" t="s">
         <v>581</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -13869,12 +13018,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
-        <f>MATCH(B144,[1]Details!$B:$B,0)</f>
         <v>151</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="B144" s="12" t="s">
         <v>584</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -13943,12 +13091,11 @@
         <v>548</v>
       </c>
     </row>
-    <row r="145" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
-        <f>MATCH(B145,[1]Details!$B:$B,0)</f>
         <v>152</v>
       </c>
-      <c r="B145" s="13" t="s">
+      <c r="B145" s="12" t="s">
         <v>586</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -14017,12 +13164,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
-        <f>MATCH(B146,[1]Details!$B:$B,0)</f>
         <v>153</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="12" t="s">
         <v>589</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -14091,24 +13237,694 @@
         <v>593</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
+    <row r="147" spans="1:25" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="2">
+        <v>154</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S147" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A148" s="2">
+        <v>155</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q148" s="2">
+        <v>7838</v>
+      </c>
+      <c r="R148" s="2">
+        <v>3918</v>
+      </c>
+      <c r="S148" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V148" s="15">
+        <v>43373</v>
+      </c>
+      <c r="W148" s="15">
+        <v>44012</v>
+      </c>
+      <c r="Y148" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A149" s="2">
+        <v>156</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q149" s="2">
+        <v>96664</v>
+      </c>
+      <c r="R149" s="2">
+        <v>96664</v>
+      </c>
+      <c r="S149" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V149" s="15">
+        <v>43937</v>
+      </c>
+      <c r="W149" s="15">
+        <v>44135</v>
+      </c>
+      <c r="Y149" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A150" s="2">
+        <v>157</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q150" s="2">
+        <v>5138215</v>
+      </c>
+      <c r="R150" s="2">
+        <v>321715</v>
+      </c>
+      <c r="S150" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V150" s="15">
+        <v>42552</v>
+      </c>
+      <c r="W150" s="15">
+        <v>44378</v>
+      </c>
+      <c r="Y150" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A151" s="2">
+        <v>158</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q151" s="2">
+        <v>639793</v>
+      </c>
+      <c r="R151" s="2">
+        <v>639793</v>
+      </c>
+      <c r="S151" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V151" s="15">
+        <v>44287</v>
+      </c>
+      <c r="W151" s="15">
+        <v>44651</v>
+      </c>
+      <c r="Y151" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A152" s="2">
+        <v>159</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I152" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q152" s="2">
+        <v>662012</v>
+      </c>
+      <c r="R152" s="2">
+        <v>331006</v>
+      </c>
+      <c r="S152" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V152" s="15">
+        <v>44137</v>
+      </c>
+      <c r="W152" s="15">
+        <v>44682</v>
+      </c>
+      <c r="Y152" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A153" s="2">
+        <v>160</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q153" s="2">
+        <v>340531</v>
+      </c>
+      <c r="R153" s="2">
+        <v>340531</v>
+      </c>
+      <c r="S153" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V153" s="15">
+        <v>44348</v>
+      </c>
+      <c r="W153" s="15">
+        <v>44893</v>
+      </c>
+      <c r="Y153" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A154" s="2">
+        <v>161</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q154" s="2">
+        <v>1599263</v>
+      </c>
+      <c r="R154" s="2">
+        <v>1599263</v>
+      </c>
+      <c r="S154" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V154" s="15">
+        <v>44197</v>
+      </c>
+      <c r="W154" s="15">
+        <v>44926</v>
+      </c>
+      <c r="Y154" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A155" s="2">
+        <v>162</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q155" s="2">
+        <v>318672</v>
+      </c>
+      <c r="R155" s="2">
+        <v>159336</v>
+      </c>
+      <c r="S155" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V155" s="15">
+        <v>43881</v>
+      </c>
+      <c r="W155" s="15">
+        <v>44977</v>
+      </c>
+      <c r="Y155" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A156" s="2">
+        <v>163</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q156" s="2">
+        <v>463888</v>
+      </c>
+      <c r="R156" s="2">
+        <v>463888</v>
+      </c>
+      <c r="S156" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V156" s="15">
+        <v>44350</v>
+      </c>
+      <c r="W156" s="15">
+        <v>45079</v>
+      </c>
+      <c r="Y156" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A157" s="2">
+        <v>164</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q157" s="2">
+        <v>492566</v>
+      </c>
+      <c r="R157" s="2">
+        <v>492566</v>
+      </c>
+      <c r="S157" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V157" s="15">
+        <v>44350</v>
+      </c>
+      <c r="W157" s="15">
+        <v>45079</v>
+      </c>
+      <c r="Y157" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A158" s="2">
+        <v>165</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q158" s="2">
+        <v>305220</v>
+      </c>
+      <c r="R158" s="2">
+        <v>152610</v>
+      </c>
+      <c r="S158" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V158" s="15">
+        <v>44378</v>
+      </c>
+      <c r="W158" s="15">
+        <v>45473</v>
+      </c>
+      <c r="Y158" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A159" s="2">
+        <v>166</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q159" s="2">
+        <v>4020832</v>
+      </c>
+      <c r="R159" s="2">
+        <v>2010416</v>
+      </c>
+      <c r="S159" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V159" s="15">
+        <v>44378</v>
+      </c>
+      <c r="W159" s="15">
+        <v>46203</v>
+      </c>
+      <c r="Y159" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A160" s="2">
+        <v>167</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q160" s="2">
+        <v>935258</v>
+      </c>
+      <c r="R160" s="2">
+        <v>467629</v>
+      </c>
+      <c r="S160" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V160" s="15">
+        <v>44440</v>
+      </c>
+      <c r="W160" s="15">
+        <v>46265</v>
+      </c>
+      <c r="Y160" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A161" s="2">
+        <v>168</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q161" s="2">
+        <v>694973</v>
+      </c>
+      <c r="R161" s="2">
+        <v>347486</v>
+      </c>
+      <c r="S161" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V161" s="15">
+        <v>44593</v>
+      </c>
+      <c r="W161" s="15">
+        <v>46418</v>
+      </c>
+      <c r="Y161" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y146" xr:uid="{75941F3B-36F5-4741-8F10-59CA9D4F1C3D}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="African Academy of Sciences"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:Y146">
+  <autoFilter ref="A1:Y146" xr:uid="{A58FFBF0-7AAC-48C9-8438-69EAC8AE1D80}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y146">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000OFFICIAL&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -14122,25 +13938,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ge3efbfd596043ed903f241b2c940f99 xmlns="4e1b3368-e9a8-4bcc-ae47-279d16171b03">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ge3efbfd596043ed903f241b2c940f99>
-    <e3723f5494d84ffa80cb57c0f422ec4a xmlns="4e1b3368-e9a8-4bcc-ae47-279d16171b03">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e3723f5494d84ffa80cb57c0f422ec4a>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <n85967cb7cb54bb098905720662cf525 xmlns="4e1b3368-e9a8-4bcc-ae47-279d16171b03">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </n85967cb7cb54bb098905720662cf525>
-    <TaxCatchAll xmlns="037fb88e-f71d-4ff6-945c-ae391dca3cfd"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C45049751FA5B42BE8FE45EF7B4E267" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="57785ec92e941bdeb50cb29270414fbb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4e1b3368-e9a8-4bcc-ae47-279d16171b03" xmlns:ns3="037fb88e-f71d-4ff6-945c-ae391dca3cfd" xmlns:ns4="634722c7-bce7-4f05-933b-413ff3d276a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cb5d273178ce9c8a48feab00bc6964a" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14409,6 +14206,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ge3efbfd596043ed903f241b2c940f99 xmlns="4e1b3368-e9a8-4bcc-ae47-279d16171b03">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ge3efbfd596043ed903f241b2c940f99>
+    <e3723f5494d84ffa80cb57c0f422ec4a xmlns="4e1b3368-e9a8-4bcc-ae47-279d16171b03">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e3723f5494d84ffa80cb57c0f422ec4a>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <n85967cb7cb54bb098905720662cf525 xmlns="4e1b3368-e9a8-4bcc-ae47-279d16171b03">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </n85967cb7cb54bb098905720662cf525>
+    <TaxCatchAll xmlns="037fb88e-f71d-4ff6-945c-ae391dca3cfd"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DE2A82-F0B3-42E2-97C3-378B5D9E3B32}">
   <ds:schemaRefs>
@@ -14418,25 +14234,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C8EF9CF-7EB2-4441-B2EA-8C2A4DE298A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4e1b3368-e9a8-4bcc-ae47-279d16171b03"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="634722c7-bce7-4f05-933b-413ff3d276a2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="037fb88e-f71d-4ff6-945c-ae391dca3cfd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38467FA1-ED64-4658-A692-57885D5CA2DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14455,4 +14252,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C8EF9CF-7EB2-4441-B2EA-8C2A4DE298A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="4e1b3368-e9a8-4bcc-ae47-279d16171b03"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="634722c7-bce7-4f05-933b-413ff3d276a2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="037fb88e-f71d-4ff6-945c-ae391dca3cfd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>